--- a/pred_ohlcv/54_23/2019-10-16 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-16 GXC ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -415,7 +415,7 @@
         <v>639</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -438,7 +438,7 @@
         <v>639</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -599,10 +599,10 @@
         <v>643</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>646</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -737,10 +737,10 @@
         <v>649</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -760,10 +760,10 @@
         <v>644</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -783,7 +783,7 @@
         <v>645</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>647</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>647</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>647</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>647</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>647</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>648</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>648</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>649</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>644</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>648</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>649</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1059,7 +1059,7 @@
         <v>651</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>647</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>643</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>647</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>649</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>643</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1197,10 +1197,10 @@
         <v>644</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1220,10 +1220,10 @@
         <v>650</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1243,10 +1243,10 @@
         <v>650</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1266,10 +1266,10 @@
         <v>651</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1289,10 +1289,10 @@
         <v>646</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1312,10 +1312,10 @@
         <v>645</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1335,10 +1335,10 @@
         <v>652</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1358,10 +1358,10 @@
         <v>652</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1450,7 +1450,7 @@
         <v>661</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>662</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -1703,7 +1703,7 @@
         <v>680</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -1772,7 +1772,7 @@
         <v>667</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -1818,7 +1818,7 @@
         <v>676</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -1841,7 +1841,7 @@
         <v>677</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -1864,7 +1864,7 @@
         <v>671</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -1887,7 +1887,7 @@
         <v>680</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -1979,7 +1979,7 @@
         <v>669</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2002,7 +2002,7 @@
         <v>671</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -4808,7 +4808,7 @@
         <v>630</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -4831,7 +4831,7 @@
         <v>621</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -4877,7 +4877,7 @@
         <v>621</v>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -6306,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>